--- a/CVX_Kenya/Interventions/shading nets/0.5.xlsx
+++ b/CVX_Kenya/Interventions/shading nets/0.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\shading nets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0812306F-E2D2-49A2-97EE-3E4B46E3EFC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0193E686-C034-49E0-B360-8BB7E05201E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="135" windowWidth="20460" windowHeight="10890" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -996,6 +996,13 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1011,13 +1018,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1489,7 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -2442,8 +2442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,7 +2481,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="40" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2501,7 +2501,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="17" t="s">
         <v>192</v>
       </c>
@@ -2516,7 +2516,7 @@
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
         <v>194</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>196</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="17" t="s">
         <v>183</v>
       </c>
@@ -2561,7 +2561,7 @@
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="17" t="s">
         <v>182</v>
       </c>
@@ -2574,7 +2574,7 @@
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="17" t="s">
         <v>210</v>
       </c>
@@ -2589,7 +2589,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="17" t="s">
         <v>216</v>
       </c>
@@ -2619,13 +2619,13 @@
       <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="42" t="s">
         <v>178</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="36">
         <f>C10/C8</f>
         <v>3.7209302325581389E-3</v>
       </c>
@@ -2635,11 +2635,11 @@
       <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="37">
         <v>0.5</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -2654,7 +2654,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="16" t="s">
         <v>203</v>
       </c>
@@ -2671,7 +2671,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="43" t="s">
         <v>179</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2689,7 +2689,7 @@
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="22" t="s">
         <v>197</v>
       </c>
@@ -2703,7 +2703,7 @@
       <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="22" t="s">
         <v>201</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="22" t="s">
         <v>202</v>
       </c>
@@ -2735,7 +2735,7 @@
       <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="39" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -2755,7 +2755,7 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="19" t="s">
         <v>181</v>
       </c>
@@ -2805,7 +2805,7 @@
         <f>(140-75)/5</f>
         <v>13</v>
       </c>
-      <c r="G33" s="43"/>
+      <c r="G33" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
